--- a/arquivos/qualifarsus/ciclo_03_2024/teste.xlsx
+++ b/arquivos/qualifarsus/ciclo_03_2024/teste.xlsx
@@ -336,12 +336,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>